--- a/Livermore_highfrequency/report/XAUUSD_DXY_TNX_D1_bem_exchange.xlsx
+++ b/Livermore_highfrequency/report/XAUUSD_DXY_TNX_D1_bem_exchange.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="467">
   <si>
     <t>日期</t>
   </si>
@@ -1403,6 +1403,18 @@
   </si>
   <si>
     <t>2021-10-19</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z453"/>
+  <dimension ref="A1:Z457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2015,7 +2027,7 @@
       <c r="R4" s="6">
         <v>1.79</v>
       </c>
-      <c r="V4" s="3">
+      <c r="X4" s="7">
         <v>116.99</v>
       </c>
     </row>
@@ -2055,7 +2067,7 @@
       <c r="R6" s="7">
         <v>1.83</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="V6" s="7">
         <v>121.52</v>
       </c>
     </row>
@@ -2075,7 +2087,7 @@
       <c r="P7" s="8">
         <v>1.87</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="V7" s="7">
         <v>106.43</v>
       </c>
     </row>
@@ -2115,7 +2127,7 @@
       <c r="P9" s="7">
         <v>1.83</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Y9" s="7">
         <v>113.06</v>
       </c>
     </row>
@@ -2155,7 +2167,7 @@
       <c r="P11" s="7">
         <v>1.82</v>
       </c>
-      <c r="U11" s="3">
+      <c r="Y11" s="7">
         <v>106.77</v>
       </c>
     </row>
@@ -2175,7 +2187,7 @@
       <c r="R12" s="4">
         <v>1.79</v>
       </c>
-      <c r="U12" s="3">
+      <c r="Y12" s="7">
         <v>115.79</v>
       </c>
     </row>
@@ -2195,7 +2207,7 @@
       <c r="R13" s="7">
         <v>1.81</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Y13" s="7">
         <v>111.22</v>
       </c>
     </row>
@@ -2215,7 +2227,7 @@
       <c r="R14" s="7">
         <v>1.84</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Y14" s="7">
         <v>107.04</v>
       </c>
     </row>
@@ -2235,7 +2247,7 @@
       <c r="R15" s="4">
         <v>1.77</v>
       </c>
-      <c r="U15" s="3">
+      <c r="Y15" s="7">
         <v>114.59</v>
       </c>
     </row>
@@ -2255,7 +2267,7 @@
       <c r="R16" s="7">
         <v>1.77</v>
       </c>
-      <c r="U16" s="3">
+      <c r="Y16" s="7">
         <v>116.05</v>
       </c>
     </row>
@@ -2275,7 +2287,7 @@
       <c r="R17" s="4">
         <v>1.74</v>
       </c>
-      <c r="U17" s="3">
+      <c r="Y17" s="7">
         <v>119.07</v>
       </c>
     </row>
@@ -2295,7 +2307,7 @@
       <c r="R18" s="4">
         <v>1.68</v>
       </c>
-      <c r="W18" s="2">
+      <c r="V18" s="8">
         <v>126.57</v>
       </c>
     </row>
@@ -2315,7 +2327,7 @@
       <c r="R19" s="4">
         <v>1.6</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="2">
         <v>138.54</v>
       </c>
     </row>
@@ -2335,7 +2347,7 @@
       <c r="R20" s="7">
         <v>1.64</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="W20" s="7">
         <v>128.35</v>
       </c>
     </row>
@@ -2355,7 +2367,7 @@
       <c r="R21" s="4">
         <v>1.59</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="7">
         <v>136.25</v>
       </c>
     </row>
@@ -2415,7 +2427,7 @@
       <c r="R24" s="7">
         <v>1.52</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="W24" s="7">
         <v>145.62</v>
       </c>
     </row>
@@ -2435,7 +2447,7 @@
       <c r="P25" s="3">
         <v>1.6</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="3">
         <v>125.94</v>
       </c>
     </row>
@@ -2455,7 +2467,7 @@
       <c r="P26" s="8">
         <v>1.65</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Y26" s="3">
         <v>119.52</v>
       </c>
     </row>
@@ -2475,7 +2487,7 @@
       <c r="P27" s="7">
         <v>1.64</v>
       </c>
-      <c r="V27" s="8">
+      <c r="Y27" s="7">
         <v>122.8</v>
       </c>
     </row>
@@ -2495,7 +2507,7 @@
       <c r="S28" s="3">
         <v>1.58</v>
       </c>
-      <c r="W28" s="2">
+      <c r="Y28" s="7">
         <v>127.96</v>
       </c>
     </row>
@@ -2515,7 +2527,7 @@
       <c r="S29" s="9">
         <v>1.55</v>
       </c>
-      <c r="W29" s="10">
+      <c r="Y29" s="7">
         <v>130.14</v>
       </c>
     </row>
@@ -2535,7 +2547,7 @@
       <c r="S30" s="7">
         <v>1.59</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="7">
         <v>125.31</v>
       </c>
     </row>
@@ -2555,7 +2567,7 @@
       <c r="O31" s="3">
         <v>1.63</v>
       </c>
-      <c r="X31" s="6">
+      <c r="Y31" s="9">
         <v>118.06</v>
       </c>
     </row>
@@ -2575,7 +2587,7 @@
       <c r="O32" s="7">
         <v>1.62</v>
       </c>
-      <c r="V32" s="8">
+      <c r="Y32" s="7">
         <v>122.4</v>
       </c>
     </row>
@@ -2595,7 +2607,7 @@
       <c r="O33" s="7">
         <v>1.59</v>
       </c>
-      <c r="W33" s="2">
+      <c r="Y33" s="7">
         <v>128.25</v>
       </c>
     </row>
@@ -2615,7 +2627,7 @@
       <c r="T34" s="3">
         <v>1.56</v>
       </c>
-      <c r="W34" s="2">
+      <c r="Y34" s="7">
         <v>135.72</v>
       </c>
     </row>
@@ -2695,7 +2707,7 @@
       <c r="R38" s="4">
         <v>1.38</v>
       </c>
-      <c r="W38" s="10">
+      <c r="W38" s="2">
         <v>180.04</v>
       </c>
     </row>
@@ -2715,7 +2727,7 @@
       <c r="R39" s="4">
         <v>1.33</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="W39" s="7">
         <v>178</v>
       </c>
     </row>
@@ -2755,7 +2767,7 @@
       <c r="R41" s="4">
         <v>1.3</v>
       </c>
-      <c r="W41" s="10">
+      <c r="W41" s="2">
         <v>190.34</v>
       </c>
     </row>
@@ -2775,7 +2787,7 @@
       <c r="R42" s="4">
         <v>1.13</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="W42" s="7">
         <v>185.37</v>
       </c>
     </row>
@@ -2955,7 +2967,7 @@
       <c r="P51" s="3">
         <v>0.85</v>
       </c>
-      <c r="Y51" s="9">
+      <c r="Y51" s="3">
         <v>216.85</v>
       </c>
     </row>
@@ -2975,7 +2987,7 @@
       <c r="P52" s="8">
         <v>0.95</v>
       </c>
-      <c r="X52" s="6">
+      <c r="Y52" s="9">
         <v>175.4</v>
       </c>
     </row>
@@ -3075,7 +3087,7 @@
       <c r="R57" s="4">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W57" s="2">
+      <c r="V57" s="8">
         <v>123.57</v>
       </c>
     </row>
@@ -3235,7 +3247,7 @@
       <c r="R65" s="4">
         <v>0.63</v>
       </c>
-      <c r="W65" s="2">
+      <c r="Y65" s="7">
         <v>223.47</v>
       </c>
     </row>
@@ -3255,7 +3267,7 @@
       <c r="R66" s="7">
         <v>0.63</v>
       </c>
-      <c r="W66" s="2">
+      <c r="Y66" s="7">
         <v>225.9</v>
       </c>
     </row>
@@ -3275,7 +3287,7 @@
       <c r="R67" s="6">
         <v>0.59</v>
       </c>
-      <c r="W67" s="2">
+      <c r="Y67" s="7">
         <v>226.75</v>
       </c>
     </row>
@@ -3295,7 +3307,7 @@
       <c r="P68" s="3">
         <v>0.68</v>
       </c>
-      <c r="W68" s="10">
+      <c r="W68" s="2">
         <v>234.53</v>
       </c>
     </row>
@@ -3335,7 +3347,7 @@
       <c r="P70" s="8">
         <v>0.76</v>
       </c>
-      <c r="Y70" s="9">
+      <c r="W70" s="7">
         <v>227.85</v>
       </c>
     </row>
@@ -3395,7 +3407,7 @@
       <c r="P73" s="7">
         <v>0.75</v>
       </c>
-      <c r="W73" s="10">
+      <c r="W73" s="2">
         <v>276.43</v>
       </c>
     </row>
@@ -3455,7 +3467,7 @@
       <c r="R76" s="7">
         <v>0.65</v>
       </c>
-      <c r="Y76" s="9">
+      <c r="W76" s="7">
         <v>258.53</v>
       </c>
     </row>
@@ -3475,7 +3487,7 @@
       <c r="R77" s="7">
         <v>0.63</v>
       </c>
-      <c r="W77" s="2">
+      <c r="W77" s="7">
         <v>263.73</v>
       </c>
     </row>
@@ -3515,7 +3527,7 @@
       <c r="R79" s="7">
         <v>0.62</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W79" s="7">
         <v>269.45</v>
       </c>
     </row>
@@ -3535,7 +3547,7 @@
       <c r="R80" s="7">
         <v>0.61</v>
       </c>
-      <c r="W80" s="2">
+      <c r="W80" s="7">
         <v>275.5</v>
       </c>
     </row>
@@ -3575,7 +3587,7 @@
       <c r="P82" s="3">
         <v>0.66</v>
       </c>
-      <c r="Y82" s="9">
+      <c r="W82" s="7">
         <v>268.56</v>
       </c>
     </row>
@@ -3595,7 +3607,7 @@
       <c r="P83" s="7">
         <v>0.61</v>
       </c>
-      <c r="W83" s="2">
+      <c r="W83" s="7">
         <v>271.42</v>
       </c>
     </row>
@@ -3615,7 +3627,7 @@
       <c r="P84" s="7">
         <v>0.63</v>
       </c>
-      <c r="W84" s="10">
+      <c r="W84" s="7">
         <v>275.96</v>
       </c>
     </row>
@@ -3635,7 +3647,7 @@
       <c r="P85" s="7">
         <v>0.62</v>
       </c>
-      <c r="Y85" s="9">
+      <c r="W85" s="7">
         <v>270.7</v>
       </c>
     </row>
@@ -3655,7 +3667,7 @@
       <c r="P86" s="7">
         <v>0.64</v>
       </c>
-      <c r="W86" s="10">
+      <c r="W86" s="7">
         <v>273.63</v>
       </c>
     </row>
@@ -3675,7 +3687,7 @@
       <c r="P87" s="7">
         <v>0.64</v>
       </c>
-      <c r="Y87" s="9">
+      <c r="W87" s="7">
         <v>270.19</v>
       </c>
     </row>
@@ -3695,7 +3707,7 @@
       <c r="P88" s="7">
         <v>0.66</v>
       </c>
-      <c r="X88" s="4">
+      <c r="W88" s="7">
         <v>266.65</v>
       </c>
     </row>
@@ -3715,7 +3727,7 @@
       <c r="P89" s="8">
         <v>0.71</v>
       </c>
-      <c r="X89" s="6">
+      <c r="Y89" s="9">
         <v>249.77</v>
       </c>
     </row>
@@ -3755,7 +3767,7 @@
       <c r="R91" s="7">
         <v>0.68</v>
       </c>
-      <c r="X91" s="4">
+      <c r="W91" s="7">
         <v>263.71</v>
       </c>
     </row>
@@ -3775,7 +3787,7 @@
       <c r="P92" s="8">
         <v>0.73</v>
       </c>
-      <c r="X92" s="6">
+      <c r="Y92" s="9">
         <v>252.3</v>
       </c>
     </row>
@@ -3795,7 +3807,7 @@
       <c r="P93" s="7">
         <v>0.68</v>
       </c>
-      <c r="W93" s="2">
+      <c r="Y93" s="7">
         <v>261.41</v>
       </c>
     </row>
@@ -3815,7 +3827,7 @@
       <c r="R94" s="4">
         <v>0.65</v>
       </c>
-      <c r="W94" s="2">
+      <c r="Y94" s="7">
         <v>268.27</v>
       </c>
     </row>
@@ -3855,7 +3867,7 @@
       <c r="R96" s="7">
         <v>0.64</v>
       </c>
-      <c r="W96" s="10">
+      <c r="W96" s="2">
         <v>279.28</v>
       </c>
     </row>
@@ -3875,7 +3887,7 @@
       <c r="P97" s="8">
         <v>0.74</v>
       </c>
-      <c r="Y97" s="9">
+      <c r="W97" s="7">
         <v>272.19</v>
       </c>
     </row>
@@ -3915,7 +3927,7 @@
       <c r="P99" s="7">
         <v>0.68</v>
       </c>
-      <c r="W99" s="10">
+      <c r="W99" s="2">
         <v>289.35</v>
       </c>
     </row>
@@ -3935,7 +3947,7 @@
       <c r="P100" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="W100" s="7">
         <v>277.96</v>
       </c>
     </row>
@@ -3955,7 +3967,7 @@
       <c r="R101" s="4">
         <v>0.66</v>
       </c>
-      <c r="Y101" s="7">
+      <c r="W101" s="7">
         <v>279.95</v>
       </c>
     </row>
@@ -3975,7 +3987,7 @@
       <c r="R102" s="7">
         <v>0.7</v>
       </c>
-      <c r="Y102" s="9">
+      <c r="W102" s="7">
         <v>272.72</v>
       </c>
     </row>
@@ -3995,7 +4007,7 @@
       <c r="R103" s="7">
         <v>0.68</v>
       </c>
-      <c r="W103" s="2">
+      <c r="W103" s="7">
         <v>275.02</v>
       </c>
     </row>
@@ -4015,7 +4027,7 @@
       <c r="R104" s="7">
         <v>0.71</v>
       </c>
-      <c r="W104" s="2">
+      <c r="W104" s="7">
         <v>280.95</v>
       </c>
     </row>
@@ -4075,7 +4087,7 @@
       <c r="R107" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y107" s="3">
+      <c r="W107" s="7">
         <v>295.53</v>
       </c>
     </row>
@@ -4095,7 +4107,7 @@
       <c r="P108" s="8">
         <v>0.76</v>
       </c>
-      <c r="Y108" s="9">
+      <c r="Y108" s="3">
         <v>278.71</v>
       </c>
     </row>
@@ -4115,7 +4127,7 @@
       <c r="Q109" s="2">
         <v>0.82</v>
       </c>
-      <c r="W109" s="10">
+      <c r="Y109" s="7">
         <v>284.69</v>
       </c>
     </row>
@@ -4135,7 +4147,7 @@
       <c r="Q110" s="10">
         <v>0.9</v>
       </c>
-      <c r="X110" s="6">
+      <c r="Y110" s="9">
         <v>262.43</v>
       </c>
     </row>
@@ -4155,7 +4167,7 @@
       <c r="Q111" s="7">
         <v>0.88</v>
       </c>
-      <c r="W111" s="2">
+      <c r="Y111" s="7">
         <v>272.8</v>
       </c>
     </row>
@@ -4179,7 +4191,7 @@
         <v>287.79</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:23">
       <c r="A113" s="5" t="s">
         <v>122</v>
       </c>
@@ -4195,11 +4207,11 @@
       <c r="R113" s="4">
         <v>0.75</v>
       </c>
-      <c r="W113" s="10">
+      <c r="W113" s="2">
         <v>309.14</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:23">
       <c r="A114" s="5" t="s">
         <v>123</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>307.53</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:23">
       <c r="A115" s="5" t="s">
         <v>124</v>
       </c>
@@ -4235,11 +4247,11 @@
       <c r="R115" s="7">
         <v>0.7</v>
       </c>
-      <c r="Y115" s="9">
+      <c r="W115" s="7">
         <v>300.46</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:23">
       <c r="A116" s="5" t="s">
         <v>125</v>
       </c>
@@ -4255,11 +4267,11 @@
       <c r="R116" s="7">
         <v>0.7</v>
       </c>
-      <c r="W116" s="10">
+      <c r="W116" s="7">
         <v>302.56</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:23">
       <c r="A117" s="5" t="s">
         <v>126</v>
       </c>
@@ -4275,11 +4287,11 @@
       <c r="P117" s="8">
         <v>0.76</v>
       </c>
-      <c r="X117" s="6">
+      <c r="W117" s="7">
         <v>294.33</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:23">
       <c r="A118" s="5" t="s">
         <v>127</v>
       </c>
@@ -4295,11 +4307,11 @@
       <c r="P118" s="7">
         <v>0.73</v>
       </c>
-      <c r="X118" s="7">
+      <c r="W118" s="7">
         <v>296.25</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:23">
       <c r="A119" s="5" t="s">
         <v>128</v>
       </c>
@@ -4315,11 +4327,11 @@
       <c r="R119" s="4">
         <v>0.6899999999999999</v>
       </c>
-      <c r="X119" s="7">
+      <c r="W119" s="7">
         <v>294.45</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:23">
       <c r="A120" s="5" t="s">
         <v>129</v>
       </c>
@@ -4335,11 +4347,11 @@
       <c r="R120" s="7">
         <v>0.7</v>
       </c>
-      <c r="W120" s="2">
+      <c r="W120" s="7">
         <v>300.23</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:23">
       <c r="A121" s="5" t="s">
         <v>130</v>
       </c>
@@ -4359,7 +4371,7 @@
         <v>311.61</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:23">
       <c r="A122" s="5" t="s">
         <v>131</v>
       </c>
@@ -4375,11 +4387,11 @@
       <c r="R122" s="7">
         <v>0.71</v>
       </c>
-      <c r="W122" s="10">
+      <c r="W122" s="2">
         <v>319.47</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:23">
       <c r="A123" s="5" t="s">
         <v>132</v>
       </c>
@@ -4395,11 +4407,11 @@
       <c r="R123" s="4">
         <v>0.68</v>
       </c>
-      <c r="Y123" s="9">
+      <c r="W123" s="7">
         <v>314.59</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:23">
       <c r="A124" s="5" t="s">
         <v>133</v>
       </c>
@@ -4415,11 +4427,11 @@
       <c r="R124" s="4">
         <v>0.67</v>
       </c>
-      <c r="Y124" s="7">
+      <c r="W124" s="7">
         <v>315.12</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:23">
       <c r="A125" s="5" t="s">
         <v>134</v>
       </c>
@@ -4439,7 +4451,7 @@
         <v>319.73</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:23">
       <c r="A126" s="5" t="s">
         <v>135</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>321.23</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:23">
       <c r="A127" s="5" t="s">
         <v>136</v>
       </c>
@@ -4475,11 +4487,11 @@
       <c r="R127" s="7">
         <v>0.65</v>
       </c>
-      <c r="W127" s="10">
+      <c r="W127" s="2">
         <v>324.25</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:23">
       <c r="A128" s="5" t="s">
         <v>137</v>
       </c>
@@ -4495,11 +4507,11 @@
       <c r="R128" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y128" s="9">
+      <c r="W128" s="7">
         <v>319.02</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:23">
       <c r="A129" s="5" t="s">
         <v>138</v>
       </c>
@@ -4515,11 +4527,11 @@
       <c r="R129" s="7">
         <v>0.67</v>
       </c>
-      <c r="W129" s="2">
+      <c r="W129" s="7">
         <v>321.75</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:23">
       <c r="A130" s="5" t="s">
         <v>139</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>328.86</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:23">
       <c r="A131" s="5" t="s">
         <v>140</v>
       </c>
@@ -4559,7 +4571,7 @@
         <v>334.47</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:23">
       <c r="A132" s="5" t="s">
         <v>141</v>
       </c>
@@ -4575,11 +4587,11 @@
       <c r="R132" s="7">
         <v>0.65</v>
       </c>
-      <c r="W132" s="10">
+      <c r="W132" s="2">
         <v>345.22</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:23">
       <c r="A133" s="5" t="s">
         <v>142</v>
       </c>
@@ -4599,7 +4611,7 @@
         <v>343.75</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:23">
       <c r="A134" s="5" t="s">
         <v>143</v>
       </c>
@@ -4615,11 +4627,11 @@
       <c r="R134" s="7">
         <v>0.63</v>
       </c>
-      <c r="Y134" s="9">
+      <c r="W134" s="7">
         <v>341.19</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:23">
       <c r="A135" s="5" t="s">
         <v>144</v>
       </c>
@@ -4635,11 +4647,11 @@
       <c r="R135" s="7">
         <v>0.64</v>
       </c>
-      <c r="Y135" s="7">
+      <c r="W135" s="7">
         <v>342.9</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:23">
       <c r="A136" s="5" t="s">
         <v>145</v>
       </c>
@@ -4659,7 +4671,7 @@
         <v>351.12</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:23">
       <c r="A137" s="5" t="s">
         <v>146</v>
       </c>
@@ -4675,11 +4687,11 @@
       <c r="R137" s="7">
         <v>0.63</v>
       </c>
-      <c r="W137" s="10">
+      <c r="W137" s="2">
         <v>352.42</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:23">
       <c r="A138" s="5" t="s">
         <v>147</v>
       </c>
@@ -4695,11 +4707,11 @@
       <c r="R138" s="7">
         <v>0.61</v>
       </c>
-      <c r="Y138" s="9">
+      <c r="W138" s="7">
         <v>345.82</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:23">
       <c r="A139" s="5" t="s">
         <v>148</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>352.45</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:23">
       <c r="A140" s="5" t="s">
         <v>149</v>
       </c>
@@ -4739,7 +4751,7 @@
         <v>358.82</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:23">
       <c r="A141" s="5" t="s">
         <v>150</v>
       </c>
@@ -4759,7 +4771,7 @@
         <v>376.41</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:23">
       <c r="A142" s="5" t="s">
         <v>151</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>393.45</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:23">
       <c r="A143" s="5" t="s">
         <v>152</v>
       </c>
@@ -4799,7 +4811,7 @@
         <v>402.82</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:23">
       <c r="A144" s="5" t="s">
         <v>153</v>
       </c>
@@ -5075,7 +5087,7 @@
       <c r="P157" s="3">
         <v>0.67</v>
       </c>
-      <c r="W157" s="2">
+      <c r="Y157" s="7">
         <v>420</v>
       </c>
     </row>
@@ -5095,7 +5107,7 @@
       <c r="P158" s="8">
         <v>0.72</v>
       </c>
-      <c r="W158" s="2">
+      <c r="Y158" s="7">
         <v>432.6</v>
       </c>
     </row>
@@ -5115,7 +5127,7 @@
       <c r="P159" s="7">
         <v>0.71</v>
       </c>
-      <c r="W159" s="7">
+      <c r="Y159" s="7">
         <v>431.13</v>
       </c>
     </row>
@@ -5175,7 +5187,7 @@
       <c r="P162" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y162" s="9">
+      <c r="Y162" s="3">
         <v>428.16</v>
       </c>
     </row>
@@ -5195,7 +5207,7 @@
       <c r="R163" s="6">
         <v>0.64</v>
       </c>
-      <c r="W163" s="10">
+      <c r="Y163" s="7">
         <v>442.34</v>
       </c>
     </row>
@@ -5215,7 +5227,7 @@
       <c r="R164" s="7">
         <v>0.64</v>
       </c>
-      <c r="Y164" s="3">
+      <c r="Y164" s="7">
         <v>435.54</v>
       </c>
     </row>
@@ -5235,7 +5247,7 @@
       <c r="R165" s="7">
         <v>0.65</v>
       </c>
-      <c r="Y165" s="3">
+      <c r="Y165" s="7">
         <v>428.49</v>
       </c>
     </row>
@@ -5255,7 +5267,7 @@
       <c r="R166" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y166" s="9">
+      <c r="Y166" s="7">
         <v>428.22</v>
       </c>
     </row>
@@ -5275,7 +5287,7 @@
       <c r="R167" s="7">
         <v>0.6899999999999999</v>
       </c>
-      <c r="W167" s="10">
+      <c r="Y167" s="7">
         <v>439.2</v>
       </c>
     </row>
@@ -5295,7 +5307,7 @@
       <c r="Q168" s="10">
         <v>0.75</v>
       </c>
-      <c r="X168" s="6">
+      <c r="Y168" s="9">
         <v>421.63</v>
       </c>
     </row>
@@ -5375,7 +5387,7 @@
       <c r="R172" s="4">
         <v>0.65</v>
       </c>
-      <c r="Y172" s="3">
+      <c r="W172" s="7">
         <v>441.53</v>
       </c>
     </row>
@@ -5395,7 +5407,7 @@
       <c r="R173" s="6">
         <v>0.62</v>
       </c>
-      <c r="Y173" s="3">
+      <c r="W173" s="7">
         <v>437.74</v>
       </c>
     </row>
@@ -5415,7 +5427,7 @@
       <c r="P174" s="8">
         <v>0.72</v>
       </c>
-      <c r="Y174" s="9">
+      <c r="Y174" s="3">
         <v>428.35</v>
       </c>
     </row>
@@ -5435,7 +5447,7 @@
       <c r="P175" s="7">
         <v>0.68</v>
       </c>
-      <c r="X175" s="6">
+      <c r="Y175" s="3">
         <v>424.74</v>
       </c>
     </row>
@@ -5455,7 +5467,7 @@
       <c r="P176" s="7">
         <v>0.7</v>
       </c>
-      <c r="W176" s="2">
+      <c r="Y176" s="7">
         <v>431.92</v>
       </c>
     </row>
@@ -5475,7 +5487,7 @@
       <c r="P177" s="7">
         <v>0.6899999999999999</v>
       </c>
-      <c r="W177" s="7">
+      <c r="Y177" s="7">
         <v>431.15</v>
       </c>
     </row>
@@ -5495,7 +5507,7 @@
       <c r="P178" s="7">
         <v>0.67</v>
       </c>
-      <c r="W178" s="2">
+      <c r="Y178" s="7">
         <v>432.01</v>
       </c>
     </row>
@@ -5515,7 +5527,7 @@
       <c r="P179" s="7">
         <v>0.67</v>
       </c>
-      <c r="W179" s="10">
+      <c r="Y179" s="7">
         <v>440.78</v>
       </c>
     </row>
@@ -5535,7 +5547,7 @@
       <c r="P180" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y180" s="3">
+      <c r="Y180" s="7">
         <v>438.38</v>
       </c>
     </row>
@@ -5575,7 +5587,7 @@
       <c r="P182" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y182" s="9">
+      <c r="Y182" s="7">
         <v>436.17</v>
       </c>
     </row>
@@ -5615,7 +5627,7 @@
       <c r="P184" s="7">
         <v>0.67</v>
       </c>
-      <c r="X184" s="4">
+      <c r="Y184" s="9">
         <v>417.3</v>
       </c>
     </row>
@@ -5655,7 +5667,7 @@
       <c r="P186" s="7">
         <v>0.68</v>
       </c>
-      <c r="X186" s="6">
+      <c r="X186" s="4">
         <v>386.9</v>
       </c>
     </row>
@@ -5675,7 +5687,7 @@
       <c r="P187" s="7">
         <v>0.67</v>
       </c>
-      <c r="W187" s="10">
+      <c r="X187" s="7">
         <v>390.25</v>
       </c>
     </row>
@@ -5715,7 +5727,7 @@
       <c r="P189" s="7">
         <v>0.66</v>
       </c>
-      <c r="W189" s="2">
+      <c r="X189" s="7">
         <v>397.78</v>
       </c>
     </row>
@@ -5735,7 +5747,7 @@
       <c r="R190" s="6">
         <v>0.64</v>
       </c>
-      <c r="W190" s="10">
+      <c r="W190" s="2">
         <v>410.31</v>
       </c>
     </row>
@@ -5755,7 +5767,7 @@
       <c r="R191" s="7">
         <v>0.68</v>
       </c>
-      <c r="X191" s="6">
+      <c r="W191" s="7">
         <v>401.59</v>
       </c>
     </row>
@@ -5795,7 +5807,7 @@
       <c r="P193" s="8">
         <v>0.7</v>
       </c>
-      <c r="X193" s="6">
+      <c r="W193" s="7">
         <v>405.76</v>
       </c>
     </row>
@@ -5815,7 +5827,7 @@
       <c r="Q194" s="2">
         <v>0.76</v>
       </c>
-      <c r="W194" s="10">
+      <c r="W194" s="7">
         <v>409.51</v>
       </c>
     </row>
@@ -5855,7 +5867,7 @@
       <c r="Q196" s="10">
         <v>0.78</v>
       </c>
-      <c r="W196" s="2">
+      <c r="X196" s="7">
         <v>394.81</v>
       </c>
     </row>
@@ -5875,7 +5887,7 @@
       <c r="Q197" s="7">
         <v>0.76</v>
       </c>
-      <c r="W197" s="2">
+      <c r="X197" s="7">
         <v>399.61</v>
       </c>
     </row>
@@ -5915,7 +5927,7 @@
       <c r="Q199" s="7">
         <v>0.78</v>
       </c>
-      <c r="X199" s="4">
+      <c r="W199" s="7">
         <v>415.52</v>
       </c>
     </row>
@@ -5935,7 +5947,7 @@
       <c r="Q200" s="7">
         <v>0.73</v>
       </c>
-      <c r="X200" s="6">
+      <c r="W200" s="7">
         <v>402.25</v>
       </c>
     </row>
@@ -5955,7 +5967,7 @@
       <c r="R201" s="6">
         <v>0.72</v>
       </c>
-      <c r="W201" s="10">
+      <c r="W201" s="7">
         <v>408.47</v>
       </c>
     </row>
@@ -5995,7 +6007,7 @@
       <c r="R203" s="7">
         <v>0.74</v>
       </c>
-      <c r="X203" s="6">
+      <c r="W203" s="7">
         <v>402.59</v>
       </c>
     </row>
@@ -6015,7 +6027,7 @@
       <c r="R204" s="7">
         <v>0.76</v>
       </c>
-      <c r="W204" s="2">
+      <c r="W204" s="7">
         <v>405.71</v>
       </c>
     </row>
@@ -6035,7 +6047,7 @@
       <c r="Q205" s="2">
         <v>0.8</v>
       </c>
-      <c r="W205" s="2">
+      <c r="W205" s="7">
         <v>406.48</v>
       </c>
     </row>
@@ -6055,7 +6067,7 @@
       <c r="Q206" s="2">
         <v>0.82</v>
       </c>
-      <c r="W206" s="10">
+      <c r="W206" s="7">
         <v>416.35</v>
       </c>
     </row>
@@ -6075,7 +6087,7 @@
       <c r="Q207" s="10">
         <v>0.85</v>
       </c>
-      <c r="X207" s="6">
+      <c r="X207" s="4">
         <v>401.53</v>
       </c>
     </row>
@@ -6095,7 +6107,7 @@
       <c r="Q208" s="7">
         <v>0.84</v>
       </c>
-      <c r="W208" s="2">
+      <c r="X208" s="7">
         <v>403.6</v>
       </c>
     </row>
@@ -6115,7 +6127,7 @@
       <c r="Q209" s="7">
         <v>0.8</v>
       </c>
-      <c r="W209" s="2">
+      <c r="X209" s="7">
         <v>404.63</v>
       </c>
     </row>
@@ -6135,7 +6147,7 @@
       <c r="R210" s="6">
         <v>0.78</v>
       </c>
-      <c r="W210" s="10">
+      <c r="X210" s="7">
         <v>409.23</v>
       </c>
     </row>
@@ -6215,7 +6227,7 @@
       <c r="Q214" s="7">
         <v>0.85</v>
       </c>
-      <c r="W214" s="2">
+      <c r="X214" s="7">
         <v>387.03</v>
       </c>
     </row>
@@ -6315,7 +6327,7 @@
       <c r="Q219" s="2">
         <v>0.96</v>
       </c>
-      <c r="X219" s="6">
+      <c r="X219" s="4">
         <v>373.76</v>
       </c>
     </row>
@@ -6335,7 +6347,7 @@
       <c r="Q220" s="10">
         <v>0.97</v>
       </c>
-      <c r="W220" s="10">
+      <c r="X220" s="7">
         <v>380.13</v>
       </c>
     </row>
@@ -6375,7 +6387,7 @@
       <c r="R222" s="4">
         <v>0.89</v>
       </c>
-      <c r="W222" s="2">
+      <c r="X222" s="7">
         <v>385.66</v>
       </c>
     </row>
@@ -6435,7 +6447,7 @@
       <c r="R225" s="4">
         <v>0.87</v>
       </c>
-      <c r="W225" s="10">
+      <c r="W225" s="2">
         <v>394.2</v>
       </c>
     </row>
@@ -6455,7 +6467,7 @@
       <c r="R226" s="7">
         <v>0.88</v>
       </c>
-      <c r="X226" s="6">
+      <c r="W226" s="7">
         <v>390.42</v>
       </c>
     </row>
@@ -6475,7 +6487,7 @@
       <c r="R227" s="4">
         <v>0.85</v>
       </c>
-      <c r="X227" s="7">
+      <c r="W227" s="7">
         <v>391.72</v>
       </c>
     </row>
@@ -6595,7 +6607,7 @@
       <c r="Q233" s="2">
         <v>0.93</v>
       </c>
-      <c r="W233" s="2">
+      <c r="X233" s="7">
         <v>372.97</v>
       </c>
     </row>
@@ -6635,7 +6647,7 @@
       <c r="Q235" s="7">
         <v>0.92</v>
       </c>
-      <c r="W235" s="10">
+      <c r="W235" s="2">
         <v>390.17</v>
       </c>
     </row>
@@ -6655,7 +6667,7 @@
       <c r="Q236" s="10">
         <v>0.97</v>
       </c>
-      <c r="X236" s="6">
+      <c r="W236" s="7">
         <v>383.07</v>
       </c>
     </row>
@@ -6695,7 +6707,7 @@
       <c r="Q238" s="7">
         <v>0.91</v>
       </c>
-      <c r="W238" s="10">
+      <c r="W238" s="2">
         <v>400.93</v>
       </c>
     </row>
@@ -6715,7 +6727,7 @@
       <c r="Q239" s="7">
         <v>0.9399999999999999</v>
       </c>
-      <c r="X239" s="6">
+      <c r="W239" s="7">
         <v>384.22</v>
       </c>
     </row>
@@ -6735,11 +6747,11 @@
       <c r="Q240" s="7">
         <v>0.91</v>
       </c>
-      <c r="W240" s="2">
+      <c r="W240" s="7">
         <v>388.23</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:25">
       <c r="A241" s="5" t="s">
         <v>250</v>
       </c>
@@ -6755,11 +6767,11 @@
       <c r="R241" s="6">
         <v>0.89</v>
       </c>
-      <c r="W241" s="10">
+      <c r="W241" s="7">
         <v>389.58</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:25">
       <c r="A242" s="5" t="s">
         <v>251</v>
       </c>
@@ -6775,11 +6787,11 @@
       <c r="R242" s="7">
         <v>0.89</v>
       </c>
-      <c r="X242" s="6">
+      <c r="W242" s="7">
         <v>386.8</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:25">
       <c r="A243" s="5" t="s">
         <v>252</v>
       </c>
@@ -6795,11 +6807,11 @@
       <c r="R243" s="7">
         <v>0.92</v>
       </c>
-      <c r="W243" s="2">
+      <c r="W243" s="7">
         <v>397.56</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:25">
       <c r="A244" s="5" t="s">
         <v>253</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>404.89</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:25">
       <c r="A245" s="5" t="s">
         <v>254</v>
       </c>
@@ -6839,7 +6851,7 @@
         <v>417.24</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:25">
       <c r="A246" s="5" t="s">
         <v>255</v>
       </c>
@@ -6855,11 +6867,11 @@
       <c r="Q246" s="2">
         <v>0.95</v>
       </c>
-      <c r="X246" s="4">
+      <c r="W246" s="7">
         <v>411.9</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:25">
       <c r="A247" s="5" t="s">
         <v>256</v>
       </c>
@@ -6875,11 +6887,11 @@
       <c r="Q247" s="7">
         <v>0.9399999999999999</v>
       </c>
-      <c r="X247" s="4">
+      <c r="W247" s="7">
         <v>409.41</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:25">
       <c r="A248" s="5" t="s">
         <v>257</v>
       </c>
@@ -6899,7 +6911,7 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:25">
       <c r="A249" s="5" t="s">
         <v>258</v>
       </c>
@@ -6915,11 +6927,11 @@
       <c r="Q249" s="2">
         <v>0.96</v>
       </c>
-      <c r="W249" s="2">
+      <c r="X249" s="7">
         <v>403.28</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:25">
       <c r="A250" s="5" t="s">
         <v>259</v>
       </c>
@@ -6935,11 +6947,11 @@
       <c r="Q250" s="7">
         <v>0.93</v>
       </c>
-      <c r="W250" s="2">
+      <c r="X250" s="7">
         <v>407.01</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:25">
       <c r="A251" s="5" t="s">
         <v>260</v>
       </c>
@@ -6955,11 +6967,11 @@
       <c r="Q251" s="7">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W251" s="2">
+      <c r="X251" s="7">
         <v>410.87</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:25">
       <c r="A252" s="5" t="s">
         <v>261</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>422.82</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:25">
       <c r="A253" s="5" t="s">
         <v>262</v>
       </c>
@@ -6999,7 +7011,7 @@
         <v>441.85</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:25">
       <c r="A254" s="5" t="s">
         <v>263</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>444.91</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:25">
       <c r="A255" s="5" t="s">
         <v>264</v>
       </c>
@@ -7035,11 +7047,11 @@
       <c r="Q255" s="2">
         <v>1.04</v>
       </c>
-      <c r="X255" s="4">
+      <c r="Y255" s="3">
         <v>424.24</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:25">
       <c r="A256" s="5" t="s">
         <v>265</v>
       </c>
@@ -7055,7 +7067,7 @@
       <c r="Q256" s="2">
         <v>1.07</v>
       </c>
-      <c r="X256" s="4">
+      <c r="Y256" s="9">
         <v>415</v>
       </c>
     </row>
@@ -7095,7 +7107,7 @@
       <c r="Q258" s="2">
         <v>1.13</v>
       </c>
-      <c r="X258" s="6">
+      <c r="X258" s="4">
         <v>371.52</v>
       </c>
     </row>
@@ -7115,7 +7127,7 @@
       <c r="Q259" s="10">
         <v>1.14</v>
       </c>
-      <c r="W259" s="10">
+      <c r="X259" s="7">
         <v>380.43</v>
       </c>
     </row>
@@ -7135,7 +7147,7 @@
       <c r="Q260" s="7">
         <v>1.09</v>
       </c>
-      <c r="X260" s="4">
+      <c r="X260" s="7">
         <v>378.39</v>
       </c>
     </row>
@@ -7155,7 +7167,7 @@
       <c r="Q261" s="7">
         <v>1.13</v>
       </c>
-      <c r="X261" s="4">
+      <c r="X261" s="7">
         <v>375.77</v>
       </c>
     </row>
@@ -7195,7 +7207,7 @@
       <c r="Q263" s="7">
         <v>1.09</v>
       </c>
-      <c r="W263" s="2">
+      <c r="X263" s="7">
         <v>374.68</v>
       </c>
     </row>
@@ -7255,7 +7267,7 @@
       <c r="Q266" s="7">
         <v>1.09</v>
       </c>
-      <c r="X266" s="6">
+      <c r="W266" s="7">
         <v>384.38</v>
       </c>
     </row>
@@ -7275,7 +7287,7 @@
       <c r="R267" s="4">
         <v>1.04</v>
       </c>
-      <c r="W267" s="10">
+      <c r="W267" s="7">
         <v>387.8</v>
       </c>
     </row>
@@ -7315,7 +7327,7 @@
       <c r="R269" s="6">
         <v>1.01</v>
       </c>
-      <c r="X269" s="4">
+      <c r="W269" s="7">
         <v>383.43</v>
       </c>
     </row>
@@ -7335,7 +7347,7 @@
       <c r="R270" s="7">
         <v>1.06</v>
       </c>
-      <c r="X270" s="4">
+      <c r="W270" s="7">
         <v>378.16</v>
       </c>
     </row>
@@ -7355,7 +7367,7 @@
       <c r="Q271" s="2">
         <v>1.09</v>
       </c>
-      <c r="X271" s="4">
+      <c r="W271" s="7">
         <v>378</v>
       </c>
     </row>
@@ -7375,7 +7387,7 @@
       <c r="Q272" s="7">
         <v>1.08</v>
       </c>
-      <c r="X272" s="7">
+      <c r="W272" s="7">
         <v>379.19</v>
       </c>
     </row>
@@ -7455,7 +7467,7 @@
       <c r="Q276" s="2">
         <v>1.17</v>
       </c>
-      <c r="W276" s="2">
+      <c r="X276" s="7">
         <v>350.29</v>
       </c>
     </row>
@@ -7535,7 +7547,7 @@
       <c r="Q280" s="7">
         <v>1.16</v>
       </c>
-      <c r="X280" s="4">
+      <c r="W280" s="7">
         <v>362.27</v>
       </c>
     </row>
@@ -7555,7 +7567,7 @@
       <c r="Q281" s="2">
         <v>1.2</v>
       </c>
-      <c r="X281" s="4">
+      <c r="W281" s="7">
         <v>357.43</v>
       </c>
     </row>
@@ -7595,7 +7607,7 @@
       <c r="Q283" s="7">
         <v>1.3</v>
       </c>
-      <c r="X283" s="6">
+      <c r="X283" s="4">
         <v>321.91</v>
       </c>
     </row>
@@ -7615,7 +7627,7 @@
       <c r="Q284" s="7">
         <v>1.29</v>
       </c>
-      <c r="W284" s="2">
+      <c r="X284" s="7">
         <v>326.43</v>
       </c>
     </row>
@@ -7635,7 +7647,7 @@
       <c r="Q285" s="2">
         <v>1.35</v>
       </c>
-      <c r="W285" s="7">
+      <c r="X285" s="7">
         <v>325.9</v>
       </c>
     </row>
@@ -7655,7 +7667,7 @@
       <c r="Q286" s="2">
         <v>1.37</v>
       </c>
-      <c r="W286" s="10">
+      <c r="X286" s="7">
         <v>337.68</v>
       </c>
     </row>
@@ -7675,7 +7687,7 @@
       <c r="Q287" s="7">
         <v>1.36</v>
       </c>
-      <c r="W287" s="7">
+      <c r="X287" s="7">
         <v>336.6</v>
       </c>
     </row>
@@ -7695,7 +7707,7 @@
       <c r="Q288" s="2">
         <v>1.39</v>
       </c>
-      <c r="X288" s="4">
+      <c r="X288" s="7">
         <v>334.09</v>
       </c>
     </row>
@@ -7755,7 +7767,7 @@
       <c r="R291" s="4">
         <v>1.45</v>
       </c>
-      <c r="X291" s="6">
+      <c r="X291" s="4">
         <v>284.01</v>
       </c>
     </row>
@@ -7775,7 +7787,7 @@
       <c r="R292" s="6">
         <v>1.41</v>
       </c>
-      <c r="W292" s="10">
+      <c r="X292" s="7">
         <v>296.22</v>
       </c>
     </row>
@@ -7935,7 +7947,7 @@
       <c r="Q300" s="2">
         <v>1.63</v>
       </c>
-      <c r="X300" s="6">
+      <c r="W300" s="7">
         <v>260.98</v>
       </c>
     </row>
@@ -7955,7 +7967,7 @@
       <c r="Q301" s="7">
         <v>1.61</v>
       </c>
-      <c r="W301" s="2">
+      <c r="W301" s="7">
         <v>263.37</v>
       </c>
     </row>
@@ -7995,7 +8007,7 @@
       <c r="Q303" s="2">
         <v>1.64</v>
       </c>
-      <c r="W303" s="10">
+      <c r="W303" s="7">
         <v>269.93</v>
       </c>
     </row>
@@ -8015,7 +8027,7 @@
       <c r="Q304" s="10">
         <v>1.73</v>
       </c>
-      <c r="X304" s="6">
+      <c r="X304" s="4">
         <v>252.89</v>
       </c>
     </row>
@@ -8035,7 +8047,7 @@
       <c r="Q305" s="7">
         <v>1.73</v>
       </c>
-      <c r="W305" s="2">
+      <c r="X305" s="7">
         <v>255.51</v>
       </c>
     </row>
@@ -8055,7 +8067,7 @@
       <c r="Q306" s="7">
         <v>1.68</v>
       </c>
-      <c r="W306" s="10">
+      <c r="X306" s="7">
         <v>259.24</v>
       </c>
     </row>
@@ -8075,7 +8087,7 @@
       <c r="S307" s="3">
         <v>1.64</v>
       </c>
-      <c r="X307" s="6">
+      <c r="X307" s="4">
         <v>252.73</v>
       </c>
     </row>
@@ -8095,7 +8107,7 @@
       <c r="S308" s="9">
         <v>1.61</v>
       </c>
-      <c r="W308" s="10">
+      <c r="X308" s="7">
         <v>256.3</v>
       </c>
     </row>
@@ -8195,7 +8207,7 @@
       <c r="Q313" s="10">
         <v>1.75</v>
       </c>
-      <c r="W313" s="2">
+      <c r="X313" s="7">
         <v>224.84</v>
       </c>
     </row>
@@ -8255,7 +8267,7 @@
       <c r="S316" s="3">
         <v>1.66</v>
       </c>
-      <c r="W316" s="10">
+      <c r="W316" s="2">
         <v>258.25</v>
       </c>
     </row>
@@ -8275,7 +8287,7 @@
       <c r="S317" s="3">
         <v>1.65</v>
       </c>
-      <c r="X317" s="6">
+      <c r="W317" s="7">
         <v>255.49</v>
       </c>
     </row>
@@ -8295,7 +8307,7 @@
       <c r="S318" s="3">
         <v>1.63</v>
       </c>
-      <c r="W318" s="10">
+      <c r="W318" s="2">
         <v>268.65</v>
       </c>
     </row>
@@ -8315,7 +8327,7 @@
       <c r="S319" s="7">
         <v>1.67</v>
       </c>
-      <c r="X319" s="4">
+      <c r="W319" s="7">
         <v>258.57</v>
       </c>
     </row>
@@ -8335,7 +8347,7 @@
       <c r="S320" s="7">
         <v>1.67</v>
       </c>
-      <c r="X320" s="6">
+      <c r="W320" s="7">
         <v>254.63</v>
       </c>
     </row>
@@ -8355,7 +8367,7 @@
       <c r="S321" s="9">
         <v>1.62</v>
       </c>
-      <c r="W321" s="10">
+      <c r="W321" s="7">
         <v>267.62</v>
       </c>
     </row>
@@ -8375,7 +8387,7 @@
       <c r="S322" s="7">
         <v>1.64</v>
       </c>
-      <c r="X322" s="6">
+      <c r="W322" s="7">
         <v>263.65</v>
       </c>
     </row>
@@ -8495,7 +8507,7 @@
       <c r="Q328" s="7">
         <v>1.55</v>
       </c>
-      <c r="X328" s="4">
+      <c r="W328" s="7">
         <v>296.81</v>
       </c>
     </row>
@@ -8515,7 +8527,7 @@
       <c r="Q329" s="7">
         <v>1.57</v>
       </c>
-      <c r="X329" s="4">
+      <c r="W329" s="7">
         <v>296.08</v>
       </c>
     </row>
@@ -8535,7 +8547,7 @@
       <c r="Q330" s="7">
         <v>1.57</v>
       </c>
-      <c r="X330" s="7">
+      <c r="W330" s="7">
         <v>298.03</v>
       </c>
     </row>
@@ -8555,7 +8567,7 @@
       <c r="Q331" s="2">
         <v>1.62</v>
       </c>
-      <c r="X331" s="6">
+      <c r="W331" s="7">
         <v>290.59</v>
       </c>
     </row>
@@ -8575,7 +8587,7 @@
       <c r="Q332" s="7">
         <v>1.62</v>
       </c>
-      <c r="W332" s="10">
+      <c r="W332" s="7">
         <v>295.6</v>
       </c>
     </row>
@@ -8595,7 +8607,7 @@
       <c r="Q333" s="10">
         <v>1.64</v>
       </c>
-      <c r="X333" s="4">
+      <c r="W333" s="7">
         <v>288.91</v>
       </c>
     </row>
@@ -8635,7 +8647,7 @@
       <c r="Q335" s="7">
         <v>1.61</v>
       </c>
-      <c r="W335" s="10">
+      <c r="X335" s="7">
         <v>297.83</v>
       </c>
     </row>
@@ -8655,7 +8667,7 @@
       <c r="Q336" s="7">
         <v>1.59</v>
       </c>
-      <c r="X336" s="6">
+      <c r="X336" s="7">
         <v>290.5</v>
       </c>
     </row>
@@ -8675,7 +8687,7 @@
       <c r="Q337" s="7">
         <v>1.58</v>
       </c>
-      <c r="W337" s="2">
+      <c r="X337" s="7">
         <v>295.12</v>
       </c>
     </row>
@@ -8795,7 +8807,7 @@
       <c r="Q343" s="7">
         <v>1.67</v>
       </c>
-      <c r="W343" s="2">
+      <c r="X343" s="7">
         <v>308.47</v>
       </c>
     </row>
@@ -8855,7 +8867,7 @@
       <c r="S346" s="7">
         <v>1.65</v>
       </c>
-      <c r="W346" s="10">
+      <c r="W346" s="2">
         <v>338.32</v>
       </c>
     </row>
@@ -8875,7 +8887,7 @@
       <c r="S347" s="7">
         <v>1.68</v>
       </c>
-      <c r="X347" s="6">
+      <c r="W347" s="7">
         <v>331.35</v>
       </c>
     </row>
@@ -8975,7 +8987,7 @@
       <c r="R352" s="7">
         <v>1.57</v>
       </c>
-      <c r="X352" s="4">
+      <c r="W352" s="7">
         <v>355.25</v>
       </c>
     </row>
@@ -8995,7 +9007,7 @@
       <c r="R353" s="7">
         <v>1.61</v>
       </c>
-      <c r="X353" s="6">
+      <c r="W353" s="7">
         <v>351.8</v>
       </c>
     </row>
@@ -9015,7 +9027,7 @@
       <c r="R354" s="7">
         <v>1.58</v>
       </c>
-      <c r="W354" s="10">
+      <c r="W354" s="7">
         <v>357.33</v>
       </c>
     </row>
@@ -9035,7 +9047,7 @@
       <c r="Q355" s="10">
         <v>1.62</v>
       </c>
-      <c r="X355" s="6">
+      <c r="W355" s="7">
         <v>353.14</v>
       </c>
     </row>
@@ -9055,7 +9067,7 @@
       <c r="Q356" s="7">
         <v>1.59</v>
       </c>
-      <c r="W356" s="10">
+      <c r="W356" s="7">
         <v>359.74</v>
       </c>
     </row>
@@ -9195,7 +9207,7 @@
       <c r="R363" s="7">
         <v>1.46</v>
       </c>
-      <c r="X363" s="4">
+      <c r="W363" s="7">
         <v>352.98</v>
       </c>
     </row>
@@ -9295,7 +9307,7 @@
       <c r="R368" s="6">
         <v>1.45</v>
       </c>
-      <c r="X368" s="6">
+      <c r="X368" s="4">
         <v>287.89</v>
       </c>
     </row>
@@ -9315,7 +9327,7 @@
       <c r="R369" s="7">
         <v>1.48</v>
       </c>
-      <c r="W369" s="2">
+      <c r="X369" s="7">
         <v>297.53</v>
       </c>
     </row>
@@ -9335,7 +9347,7 @@
       <c r="R370" s="7">
         <v>1.47</v>
       </c>
-      <c r="W370" s="10">
+      <c r="X370" s="7">
         <v>298.13</v>
       </c>
     </row>
@@ -9355,7 +9367,7 @@
       <c r="R371" s="7">
         <v>1.49</v>
       </c>
-      <c r="X371" s="4">
+      <c r="X371" s="7">
         <v>295.27</v>
       </c>
     </row>
@@ -9375,7 +9387,7 @@
       <c r="R372" s="7">
         <v>1.49</v>
       </c>
-      <c r="X372" s="4">
+      <c r="X372" s="7">
         <v>293.59</v>
       </c>
     </row>
@@ -9395,7 +9407,7 @@
       <c r="Q373" s="10">
         <v>1.54</v>
       </c>
-      <c r="X373" s="6">
+      <c r="X373" s="7">
         <v>291.3</v>
       </c>
     </row>
@@ -9415,7 +9427,7 @@
       <c r="R374" s="4">
         <v>1.48</v>
       </c>
-      <c r="W374" s="10">
+      <c r="X374" s="7">
         <v>295.13</v>
       </c>
     </row>
@@ -9455,7 +9467,7 @@
       <c r="R376" s="4">
         <v>1.44</v>
       </c>
-      <c r="W376" s="10">
+      <c r="X376" s="7">
         <v>291.13</v>
       </c>
     </row>
@@ -9475,7 +9487,7 @@
       <c r="R377" s="7">
         <v>1.48</v>
       </c>
-      <c r="X377" s="6">
+      <c r="X377" s="7">
         <v>288.06</v>
       </c>
     </row>
@@ -9495,7 +9507,7 @@
       <c r="R378" s="4">
         <v>1.43</v>
       </c>
-      <c r="W378" s="2">
+      <c r="X378" s="7">
         <v>300.66</v>
       </c>
     </row>
@@ -9555,7 +9567,7 @@
       <c r="R381" s="6">
         <v>1.29</v>
       </c>
-      <c r="W381" s="10">
+      <c r="W381" s="2">
         <v>319.74</v>
       </c>
     </row>
@@ -9595,7 +9607,7 @@
       <c r="Q383" s="7">
         <v>1.36</v>
       </c>
-      <c r="X383" s="4">
+      <c r="W383" s="7">
         <v>315.75</v>
       </c>
     </row>
@@ -9615,11 +9627,11 @@
       <c r="Q384" s="10">
         <v>1.41</v>
       </c>
-      <c r="X384" s="6">
+      <c r="W384" s="7">
         <v>305.79</v>
       </c>
     </row>
-    <row r="385" spans="1:24">
+    <row r="385" spans="1:23">
       <c r="A385" s="5" t="s">
         <v>394</v>
       </c>
@@ -9639,7 +9651,7 @@
         <v>323.48</v>
       </c>
     </row>
-    <row r="386" spans="1:24">
+    <row r="386" spans="1:23">
       <c r="A386" s="5" t="s">
         <v>395</v>
       </c>
@@ -9655,11 +9667,11 @@
       <c r="R386" s="4">
         <v>1.3</v>
       </c>
-      <c r="W386" s="10">
+      <c r="W386" s="2">
         <v>328.27</v>
       </c>
     </row>
-    <row r="387" spans="1:24">
+    <row r="387" spans="1:23">
       <c r="A387" s="5" t="s">
         <v>396</v>
       </c>
@@ -9675,11 +9687,11 @@
       <c r="R387" s="7">
         <v>1.3</v>
       </c>
-      <c r="X387" s="6">
+      <c r="W387" s="7">
         <v>319.28</v>
       </c>
     </row>
-    <row r="388" spans="1:24">
+    <row r="388" spans="1:23">
       <c r="A388" s="5" t="s">
         <v>397</v>
       </c>
@@ -9695,11 +9707,11 @@
       <c r="R388" s="6">
         <v>1.18</v>
       </c>
-      <c r="W388" s="10">
+      <c r="W388" s="2">
         <v>330.6</v>
       </c>
     </row>
-    <row r="389" spans="1:24">
+    <row r="389" spans="1:23">
       <c r="A389" s="5" t="s">
         <v>398</v>
       </c>
@@ -9715,11 +9727,11 @@
       <c r="R389" s="7">
         <v>1.21</v>
       </c>
-      <c r="X389" s="4">
+      <c r="W389" s="7">
         <v>325.16</v>
       </c>
     </row>
-    <row r="390" spans="1:24">
+    <row r="390" spans="1:23">
       <c r="A390" s="5" t="s">
         <v>399</v>
       </c>
@@ -9735,11 +9747,11 @@
       <c r="Q390" s="2">
         <v>1.28</v>
       </c>
-      <c r="X390" s="6">
+      <c r="W390" s="7">
         <v>316.99</v>
       </c>
     </row>
-    <row r="391" spans="1:24">
+    <row r="391" spans="1:23">
       <c r="A391" s="5" t="s">
         <v>400</v>
       </c>
@@ -9755,11 +9767,11 @@
       <c r="Q391" s="7">
         <v>1.26</v>
       </c>
-      <c r="W391" s="10">
+      <c r="W391" s="7">
         <v>319.87</v>
       </c>
     </row>
-    <row r="392" spans="1:24">
+    <row r="392" spans="1:23">
       <c r="A392" s="5" t="s">
         <v>401</v>
       </c>
@@ -9775,11 +9787,11 @@
       <c r="Q392" s="10">
         <v>1.29</v>
       </c>
-      <c r="X392" s="6">
+      <c r="W392" s="7">
         <v>314.2</v>
       </c>
     </row>
-    <row r="393" spans="1:24">
+    <row r="393" spans="1:23">
       <c r="A393" s="5" t="s">
         <v>402</v>
       </c>
@@ -9795,11 +9807,11 @@
       <c r="Q393" s="7">
         <v>1.28</v>
       </c>
-      <c r="X393" s="7">
+      <c r="W393" s="7">
         <v>316.04</v>
       </c>
     </row>
-    <row r="394" spans="1:24">
+    <row r="394" spans="1:23">
       <c r="A394" s="5" t="s">
         <v>403</v>
       </c>
@@ -9815,11 +9827,11 @@
       <c r="R394" s="4">
         <v>1.23</v>
       </c>
-      <c r="W394" s="2">
+      <c r="W394" s="7">
         <v>323.07</v>
       </c>
     </row>
-    <row r="395" spans="1:24">
+    <row r="395" spans="1:23">
       <c r="A395" s="5" t="s">
         <v>404</v>
       </c>
@@ -9835,11 +9847,11 @@
       <c r="R395" s="7">
         <v>1.26</v>
       </c>
-      <c r="W395" s="2">
+      <c r="W395" s="7">
         <v>325.61</v>
       </c>
     </row>
-    <row r="396" spans="1:24">
+    <row r="396" spans="1:23">
       <c r="A396" s="5" t="s">
         <v>405</v>
       </c>
@@ -9855,11 +9867,11 @@
       <c r="R396" s="7">
         <v>1.27</v>
       </c>
-      <c r="W396" s="10">
+      <c r="W396" s="2">
         <v>337.32</v>
       </c>
     </row>
-    <row r="397" spans="1:24">
+    <row r="397" spans="1:23">
       <c r="A397" s="5" t="s">
         <v>406</v>
       </c>
@@ -9875,11 +9887,11 @@
       <c r="R397" s="7">
         <v>1.24</v>
       </c>
-      <c r="X397" s="6">
+      <c r="W397" s="7">
         <v>332.57</v>
       </c>
     </row>
-    <row r="398" spans="1:24">
+    <row r="398" spans="1:23">
       <c r="A398" s="5" t="s">
         <v>407</v>
       </c>
@@ -9899,7 +9911,7 @@
         <v>339.51</v>
       </c>
     </row>
-    <row r="399" spans="1:24">
+    <row r="399" spans="1:23">
       <c r="A399" s="5" t="s">
         <v>408</v>
       </c>
@@ -9915,11 +9927,11 @@
       <c r="R399" s="7">
         <v>1.18</v>
       </c>
-      <c r="X399" s="4">
+      <c r="W399" s="7">
         <v>337.25</v>
       </c>
     </row>
-    <row r="400" spans="1:24">
+    <row r="400" spans="1:23">
       <c r="A400" s="5" t="s">
         <v>409</v>
       </c>
@@ -9935,7 +9947,7 @@
       <c r="R400" s="7">
         <v>1.18</v>
       </c>
-      <c r="X400" s="4">
+      <c r="W400" s="7">
         <v>335.82</v>
       </c>
     </row>
@@ -9955,7 +9967,7 @@
       <c r="R401" s="7">
         <v>1.22</v>
       </c>
-      <c r="X401" s="4">
+      <c r="W401" s="7">
         <v>328.46</v>
       </c>
     </row>
@@ -10035,7 +10047,7 @@
       <c r="Q405" s="7">
         <v>1.34</v>
       </c>
-      <c r="W405" s="10">
+      <c r="X405" s="7">
         <v>287.56</v>
       </c>
     </row>
@@ -10055,7 +10067,7 @@
       <c r="Q406" s="10">
         <v>1.37</v>
       </c>
-      <c r="X406" s="6">
+      <c r="X406" s="7">
         <v>283.93</v>
       </c>
     </row>
@@ -10095,7 +10107,7 @@
       <c r="R408" s="4">
         <v>1.26</v>
       </c>
-      <c r="W408" s="10">
+      <c r="W408" s="2">
         <v>313.7</v>
       </c>
     </row>
@@ -10115,7 +10127,7 @@
       <c r="R409" s="7">
         <v>1.26</v>
       </c>
-      <c r="X409" s="4">
+      <c r="W409" s="7">
         <v>308</v>
       </c>
     </row>
@@ -10135,7 +10147,7 @@
       <c r="R410" s="7">
         <v>1.27</v>
       </c>
-      <c r="X410" s="4">
+      <c r="W410" s="7">
         <v>307.45</v>
       </c>
     </row>
@@ -10155,7 +10167,7 @@
       <c r="R411" s="6">
         <v>1.24</v>
       </c>
-      <c r="X411" s="4">
+      <c r="W411" s="7">
         <v>303.11</v>
       </c>
     </row>
@@ -10175,7 +10187,7 @@
       <c r="R412" s="7">
         <v>1.26</v>
       </c>
-      <c r="X412" s="6">
+      <c r="W412" s="7">
         <v>302.67</v>
       </c>
     </row>
@@ -10195,7 +10207,7 @@
       <c r="R413" s="7">
         <v>1.25</v>
       </c>
-      <c r="W413" s="10">
+      <c r="W413" s="2">
         <v>318.9</v>
       </c>
     </row>
@@ -10215,7 +10227,7 @@
       <c r="R414" s="7">
         <v>1.29</v>
       </c>
-      <c r="X414" s="4">
+      <c r="W414" s="7">
         <v>314.9</v>
       </c>
     </row>
@@ -10235,7 +10247,7 @@
       <c r="Q415" s="2">
         <v>1.34</v>
       </c>
-      <c r="X415" s="4">
+      <c r="W415" s="7">
         <v>305.14</v>
       </c>
     </row>
@@ -10255,7 +10267,7 @@
       <c r="Q416" s="7">
         <v>1.34</v>
       </c>
-      <c r="X416" s="6">
+      <c r="W416" s="7">
         <v>303.37</v>
       </c>
     </row>
@@ -10395,7 +10407,7 @@
       <c r="Q423" s="10">
         <v>1.37</v>
       </c>
-      <c r="X423" s="6">
+      <c r="X423" s="4">
         <v>306.57</v>
       </c>
     </row>
@@ -10435,7 +10447,7 @@
       <c r="R425" s="4">
         <v>1.3</v>
       </c>
-      <c r="W425" s="10">
+      <c r="X425" s="7">
         <v>313.74</v>
       </c>
     </row>
@@ -10455,7 +10467,7 @@
       <c r="R426" s="7">
         <v>1.34</v>
       </c>
-      <c r="X426" s="6">
+      <c r="X426" s="4">
         <v>305.74</v>
       </c>
     </row>
@@ -10475,7 +10487,7 @@
       <c r="R427" s="7">
         <v>1.32</v>
       </c>
-      <c r="W427" s="2">
+      <c r="X427" s="7">
         <v>310.53</v>
       </c>
     </row>
@@ -10495,7 +10507,7 @@
       <c r="R428" s="6">
         <v>1.28</v>
       </c>
-      <c r="W428" s="10">
+      <c r="X428" s="7">
         <v>318.8</v>
       </c>
     </row>
@@ -10515,7 +10527,7 @@
       <c r="R429" s="7">
         <v>1.3</v>
       </c>
-      <c r="X429" s="4">
+      <c r="X429" s="7">
         <v>313.8</v>
       </c>
     </row>
@@ -10555,7 +10567,7 @@
       <c r="Q431" s="10">
         <v>1.37</v>
       </c>
-      <c r="X431" s="6">
+      <c r="X431" s="4">
         <v>282.25</v>
       </c>
     </row>
@@ -10575,7 +10587,7 @@
       <c r="R432" s="6">
         <v>1.31</v>
       </c>
-      <c r="W432" s="2">
+      <c r="X432" s="7">
         <v>292.59</v>
       </c>
     </row>
@@ -10595,7 +10607,7 @@
       <c r="R433" s="7">
         <v>1.32</v>
       </c>
-      <c r="W433" s="10">
+      <c r="X433" s="7">
         <v>296.31</v>
       </c>
     </row>
@@ -10615,7 +10627,7 @@
       <c r="R434" s="7">
         <v>1.34</v>
       </c>
-      <c r="X434" s="4">
+      <c r="X434" s="7">
         <v>288.92</v>
       </c>
     </row>
@@ -10735,7 +10747,7 @@
       <c r="Q440" s="7">
         <v>1.53</v>
       </c>
-      <c r="W440" s="2">
+      <c r="X440" s="7">
         <v>257.4</v>
       </c>
     </row>
@@ -10795,7 +10807,7 @@
       <c r="Q443" s="2">
         <v>1.53</v>
       </c>
-      <c r="X443" s="4">
+      <c r="W443" s="7">
         <v>261.46</v>
       </c>
     </row>
@@ -10815,7 +10827,7 @@
       <c r="Q444" s="7">
         <v>1.52</v>
       </c>
-      <c r="X444" s="4">
+      <c r="W444" s="7">
         <v>261.12</v>
       </c>
     </row>
@@ -10895,7 +10907,7 @@
       <c r="Q448" s="7">
         <v>1.58</v>
       </c>
-      <c r="W448" s="2">
+      <c r="X448" s="7">
         <v>251.1</v>
       </c>
     </row>
@@ -10955,7 +10967,7 @@
       <c r="Q451" s="2">
         <v>1.58</v>
       </c>
-      <c r="X451" s="4">
+      <c r="W451" s="7">
         <v>260.06</v>
       </c>
     </row>
@@ -10966,7 +10978,7 @@
       <c r="B452" s="2">
         <v>93200</v>
       </c>
-      <c r="F452" s="4">
+      <c r="F452" s="6">
         <v>1764.77</v>
       </c>
       <c r="K452" s="7">
@@ -10997,6 +11009,86 @@
       </c>
       <c r="X453" s="4">
         <v>257.54</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24">
+      <c r="A454" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B454" s="2">
+        <v>83805</v>
+      </c>
+      <c r="E454" s="2">
+        <v>1781.98</v>
+      </c>
+      <c r="L454" s="4">
+        <v>93.61</v>
+      </c>
+      <c r="Q454" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="X454" s="7">
+        <v>263.61</v>
+      </c>
+    </row>
+    <row r="455" spans="1:24">
+      <c r="A455" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B455" s="2">
+        <v>91930</v>
+      </c>
+      <c r="E455" s="2">
+        <v>1782.88</v>
+      </c>
+      <c r="L455" s="7">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="Q455" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="X455" s="7">
+        <v>258.49</v>
+      </c>
+    </row>
+    <row r="456" spans="1:24">
+      <c r="A456" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B456" s="2">
+        <v>90496</v>
+      </c>
+      <c r="E456" s="2">
+        <v>1792.56</v>
+      </c>
+      <c r="L456" s="7">
+        <v>93.61</v>
+      </c>
+      <c r="Q456" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="X456" s="7">
+        <v>267.14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:24">
+      <c r="A457" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B457" s="2">
+        <v>77429</v>
+      </c>
+      <c r="E457" s="2">
+        <v>1807.66</v>
+      </c>
+      <c r="L457" s="7">
+        <v>93.84</v>
+      </c>
+      <c r="Q457" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="X457" s="7">
+        <v>273.31</v>
       </c>
     </row>
   </sheetData>

--- a/Livermore_highfrequency/report/XAUUSD_DXY_TNX_D1_bem_exchange.xlsx
+++ b/Livermore_highfrequency/report/XAUUSD_DXY_TNX_D1_bem_exchange.xlsx
@@ -2278,7 +2278,7 @@
       <c r="B17" s="2">
         <v>124750</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>1562.79</v>
       </c>
       <c r="J17" s="3">
@@ -2298,7 +2298,7 @@
       <c r="B18" s="2">
         <v>115510</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="8">
         <v>1571.43</v>
       </c>
       <c r="J18" s="3">
@@ -2444,7 +2444,7 @@
       <c r="M25" s="7">
         <v>97.95</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="8">
         <v>1.6</v>
       </c>
       <c r="Y25" s="3">
@@ -2464,7 +2464,7 @@
       <c r="J26" s="8">
         <v>98.26000000000001</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="10">
         <v>1.65</v>
       </c>
       <c r="Y26" s="3">
@@ -2481,10 +2481,10 @@
       <c r="G27" s="7">
         <v>1566.61</v>
       </c>
-      <c r="K27" s="2">
+      <c r="J27" s="8">
         <v>98.45999999999999</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="7">
         <v>1.64</v>
       </c>
       <c r="Y27" s="7">
@@ -2501,7 +2501,7 @@
       <c r="D28" s="3">
         <v>1570.25</v>
       </c>
-      <c r="K28" s="2">
+      <c r="J28" s="8">
         <v>98.7</v>
       </c>
       <c r="S28" s="3">
@@ -2564,7 +2564,7 @@
       <c r="K31" s="2">
         <v>99</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="8">
         <v>1.63</v>
       </c>
       <c r="Y31" s="9">
@@ -2584,7 +2584,7 @@
       <c r="K32" s="2">
         <v>99.09999999999999</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>1.62</v>
       </c>
       <c r="Y32" s="7">
@@ -2604,7 +2604,7 @@
       <c r="K33" s="2">
         <v>99.16</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>1.59</v>
       </c>
       <c r="Y33" s="7">
@@ -2624,7 +2624,7 @@
       <c r="K34" s="2">
         <v>99.45999999999999</v>
       </c>
-      <c r="T34" s="3">
+      <c r="S34" s="9">
         <v>1.56</v>
       </c>
       <c r="Y34" s="7">
@@ -2644,7 +2644,7 @@
       <c r="K35" s="2">
         <v>99.61</v>
       </c>
-      <c r="T35" s="7">
+      <c r="S35" s="7">
         <v>1.57</v>
       </c>
       <c r="W35" s="2">
@@ -3407,7 +3407,7 @@
       <c r="P73" s="7">
         <v>0.75</v>
       </c>
-      <c r="W73" s="2">
+      <c r="W73" s="10">
         <v>276.43</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       <c r="R96" s="7">
         <v>0.64</v>
       </c>
-      <c r="W96" s="2">
+      <c r="W96" s="10">
         <v>279.28</v>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       <c r="P99" s="7">
         <v>0.68</v>
       </c>
-      <c r="W99" s="2">
+      <c r="W99" s="10">
         <v>289.35</v>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="P108" s="8">
         <v>0.76</v>
       </c>
-      <c r="Y108" s="3">
+      <c r="Y108" s="9">
         <v>278.71</v>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       <c r="Q110" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y110" s="9">
+      <c r="X110" s="6">
         <v>262.43</v>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       <c r="Q111" s="7">
         <v>0.88</v>
       </c>
-      <c r="Y111" s="7">
+      <c r="X111" s="7">
         <v>272.8</v>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="R113" s="4">
         <v>0.75</v>
       </c>
-      <c r="W113" s="2">
+      <c r="W113" s="10">
         <v>309.14</v>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="R122" s="7">
         <v>0.71</v>
       </c>
-      <c r="W122" s="2">
+      <c r="W122" s="10">
         <v>319.47</v>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       <c r="R127" s="7">
         <v>0.65</v>
       </c>
-      <c r="W127" s="2">
+      <c r="W127" s="10">
         <v>324.25</v>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       <c r="R132" s="7">
         <v>0.65</v>
       </c>
-      <c r="W132" s="2">
+      <c r="W132" s="10">
         <v>345.22</v>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       <c r="R137" s="7">
         <v>0.63</v>
       </c>
-      <c r="W137" s="2">
+      <c r="W137" s="10">
         <v>352.42</v>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       <c r="P162" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y162" s="3">
+      <c r="Y162" s="9">
         <v>428.16</v>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       <c r="P174" s="8">
         <v>0.72</v>
       </c>
-      <c r="Y174" s="3">
+      <c r="Y174" s="9">
         <v>428.35</v>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       <c r="P175" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y175" s="3">
+      <c r="Y175" s="9">
         <v>424.74</v>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       <c r="P185" s="7">
         <v>0.66</v>
       </c>
-      <c r="X185" s="4">
+      <c r="Y185" s="9">
         <v>408.75</v>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       <c r="R190" s="6">
         <v>0.64</v>
       </c>
-      <c r="W190" s="2">
+      <c r="W190" s="10">
         <v>410.31</v>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
         <v>411.21</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:25">
       <c r="A193" s="5" t="s">
         <v>202</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>405.76</v>
       </c>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:25">
       <c r="A194" s="5" t="s">
         <v>203</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>409.51</v>
       </c>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:25">
       <c r="A195" s="5" t="s">
         <v>204</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>391.27</v>
       </c>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:25">
       <c r="A196" s="5" t="s">
         <v>205</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>394.81</v>
       </c>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:25">
       <c r="A197" s="5" t="s">
         <v>206</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>399.61</v>
       </c>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:25">
       <c r="A198" s="5" t="s">
         <v>207</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>420.11</v>
       </c>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:25">
       <c r="A199" s="5" t="s">
         <v>208</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>415.52</v>
       </c>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:25">
       <c r="A200" s="5" t="s">
         <v>209</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>402.25</v>
       </c>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:25">
       <c r="A201" s="5" t="s">
         <v>210</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>408.47</v>
       </c>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:25">
       <c r="A202" s="5" t="s">
         <v>211</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>406.72</v>
       </c>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:25">
       <c r="A203" s="5" t="s">
         <v>212</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>402.59</v>
       </c>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:25">
       <c r="A204" s="5" t="s">
         <v>213</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>405.71</v>
       </c>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:25">
       <c r="A205" s="5" t="s">
         <v>214</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>406.48</v>
       </c>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:25">
       <c r="A206" s="5" t="s">
         <v>215</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>416.35</v>
       </c>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:25">
       <c r="A207" s="5" t="s">
         <v>216</v>
       </c>
@@ -6087,11 +6087,11 @@
       <c r="Q207" s="10">
         <v>0.85</v>
       </c>
-      <c r="X207" s="4">
+      <c r="Y207" s="9">
         <v>401.53</v>
       </c>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:25">
       <c r="A208" s="5" t="s">
         <v>217</v>
       </c>
@@ -6107,11 +6107,11 @@
       <c r="Q208" s="7">
         <v>0.84</v>
       </c>
-      <c r="X208" s="7">
+      <c r="Y208" s="7">
         <v>403.6</v>
       </c>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:25">
       <c r="A209" s="5" t="s">
         <v>218</v>
       </c>
@@ -6127,11 +6127,11 @@
       <c r="Q209" s="7">
         <v>0.8</v>
       </c>
-      <c r="X209" s="7">
+      <c r="Y209" s="7">
         <v>404.63</v>
       </c>
     </row>
-    <row r="210" spans="1:24">
+    <row r="210" spans="1:25">
       <c r="A210" s="5" t="s">
         <v>219</v>
       </c>
@@ -6147,11 +6147,11 @@
       <c r="R210" s="6">
         <v>0.78</v>
       </c>
-      <c r="X210" s="7">
+      <c r="Y210" s="7">
         <v>409.23</v>
       </c>
     </row>
-    <row r="211" spans="1:24">
+    <row r="211" spans="1:25">
       <c r="A211" s="5" t="s">
         <v>220</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>391.99</v>
       </c>
     </row>
-    <row r="212" spans="1:24">
+    <row r="212" spans="1:25">
       <c r="A212" s="5" t="s">
         <v>221</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>377.46</v>
       </c>
     </row>
-    <row r="213" spans="1:24">
+    <row r="213" spans="1:25">
       <c r="A213" s="5" t="s">
         <v>222</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>378.82</v>
       </c>
     </row>
-    <row r="214" spans="1:24">
+    <row r="214" spans="1:25">
       <c r="A214" s="5" t="s">
         <v>223</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>387.03</v>
       </c>
     </row>
-    <row r="215" spans="1:24">
+    <row r="215" spans="1:25">
       <c r="A215" s="5" t="s">
         <v>224</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>396.29</v>
       </c>
     </row>
-    <row r="216" spans="1:24">
+    <row r="216" spans="1:25">
       <c r="A216" s="5" t="s">
         <v>225</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>404.17</v>
       </c>
     </row>
-    <row r="217" spans="1:24">
+    <row r="217" spans="1:25">
       <c r="A217" s="5" t="s">
         <v>226</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>431.78</v>
       </c>
     </row>
-    <row r="218" spans="1:24">
+    <row r="218" spans="1:25">
       <c r="A218" s="5" t="s">
         <v>227</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>431.04</v>
       </c>
     </row>
-    <row r="219" spans="1:24">
+    <row r="219" spans="1:25">
       <c r="A219" s="5" t="s">
         <v>228</v>
       </c>
@@ -6327,11 +6327,11 @@
       <c r="Q219" s="2">
         <v>0.96</v>
       </c>
-      <c r="X219" s="4">
+      <c r="X219" s="6">
         <v>373.76</v>
       </c>
     </row>
-    <row r="220" spans="1:24">
+    <row r="220" spans="1:25">
       <c r="A220" s="5" t="s">
         <v>229</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>380.13</v>
       </c>
     </row>
-    <row r="221" spans="1:24">
+    <row r="221" spans="1:25">
       <c r="A221" s="5" t="s">
         <v>230</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>373.39</v>
       </c>
     </row>
-    <row r="222" spans="1:24">
+    <row r="222" spans="1:25">
       <c r="A222" s="5" t="s">
         <v>231</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>385.66</v>
       </c>
     </row>
-    <row r="223" spans="1:24">
+    <row r="223" spans="1:25">
       <c r="A223" s="5" t="s">
         <v>232</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>393.56</v>
       </c>
     </row>
-    <row r="224" spans="1:24">
+    <row r="224" spans="1:25">
       <c r="A224" s="5" t="s">
         <v>233</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="R225" s="4">
         <v>0.87</v>
       </c>
-      <c r="W225" s="2">
+      <c r="W225" s="10">
         <v>394.2</v>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       <c r="Q235" s="7">
         <v>0.92</v>
       </c>
-      <c r="W235" s="2">
+      <c r="W235" s="10">
         <v>390.17</v>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       <c r="Q238" s="7">
         <v>0.91</v>
       </c>
-      <c r="W238" s="2">
+      <c r="W238" s="10">
         <v>400.93</v>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="Q248" s="7">
         <v>0.92</v>
       </c>
-      <c r="X248" s="6">
+      <c r="Y248" s="9">
         <v>398.71</v>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
       <c r="Q249" s="2">
         <v>0.96</v>
       </c>
-      <c r="X249" s="7">
+      <c r="Y249" s="7">
         <v>403.28</v>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       <c r="Q250" s="7">
         <v>0.93</v>
       </c>
-      <c r="X250" s="7">
+      <c r="Y250" s="7">
         <v>407.01</v>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       <c r="Q251" s="7">
         <v>0.9399999999999999</v>
       </c>
-      <c r="X251" s="7">
+      <c r="Y251" s="7">
         <v>410.87</v>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       <c r="F274" s="4">
         <v>1834.08</v>
       </c>
-      <c r="K274" s="2">
+      <c r="J274" s="8">
         <v>91.12</v>
       </c>
       <c r="Q274" s="2">
@@ -8267,7 +8267,7 @@
       <c r="S316" s="3">
         <v>1.66</v>
       </c>
-      <c r="W316" s="2">
+      <c r="W316" s="10">
         <v>258.25</v>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       <c r="S318" s="3">
         <v>1.63</v>
       </c>
-      <c r="W318" s="2">
+      <c r="W318" s="10">
         <v>268.65</v>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       <c r="S346" s="7">
         <v>1.65</v>
       </c>
-      <c r="W346" s="2">
+      <c r="W346" s="10">
         <v>338.32</v>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
       <c r="R381" s="6">
         <v>1.29</v>
       </c>
-      <c r="W381" s="2">
+      <c r="W381" s="10">
         <v>319.74</v>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       <c r="R386" s="4">
         <v>1.3</v>
       </c>
-      <c r="W386" s="2">
+      <c r="W386" s="10">
         <v>328.27</v>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="R388" s="6">
         <v>1.18</v>
       </c>
-      <c r="W388" s="2">
+      <c r="W388" s="10">
         <v>330.6</v>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       <c r="R396" s="7">
         <v>1.27</v>
       </c>
-      <c r="W396" s="2">
+      <c r="W396" s="10">
         <v>337.32</v>
       </c>
     </row>
@@ -10107,7 +10107,7 @@
       <c r="R408" s="4">
         <v>1.26</v>
       </c>
-      <c r="W408" s="2">
+      <c r="W408" s="10">
         <v>313.7</v>
       </c>
     </row>
@@ -10207,7 +10207,7 @@
       <c r="R413" s="7">
         <v>1.25</v>
       </c>
-      <c r="W413" s="2">
+      <c r="W413" s="10">
         <v>318.9</v>
       </c>
     </row>
@@ -10407,7 +10407,7 @@
       <c r="Q423" s="10">
         <v>1.37</v>
       </c>
-      <c r="X423" s="4">
+      <c r="X423" s="6">
         <v>306.57</v>
       </c>
     </row>
@@ -11001,10 +11001,10 @@
       <c r="F453" s="7">
         <v>1769.45</v>
       </c>
-      <c r="L453" s="4">
+      <c r="L453" s="6">
         <v>93.78</v>
       </c>
-      <c r="Q453" s="2">
+      <c r="Q453" s="10">
         <v>1.63</v>
       </c>
       <c r="X453" s="4">
@@ -11044,7 +11044,7 @@
       <c r="L455" s="7">
         <v>93.76000000000001</v>
       </c>
-      <c r="Q455" s="2">
+      <c r="Q455" s="10">
         <v>1.68</v>
       </c>
       <c r="X455" s="7">
@@ -11058,7 +11058,7 @@
       <c r="B456" s="2">
         <v>90496</v>
       </c>
-      <c r="E456" s="2">
+      <c r="E456" s="10">
         <v>1792.56</v>
       </c>
       <c r="L456" s="7">
@@ -11078,7 +11078,7 @@
       <c r="B457" s="2">
         <v>77429</v>
       </c>
-      <c r="E457" s="2">
+      <c r="E457" s="10">
         <v>1807.66</v>
       </c>
       <c r="L457" s="7">
